--- a/Documents/Test Sprint Backlog30.xlsx
+++ b/Documents/Test Sprint Backlog30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\đồ án tốt nghiệp\XDSLHWQ9366\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E40C9F-601A-460F-8925-EE10CDCEFFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D31A4-5CC4-483B-8841-9369AAC9D68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1444,18 +1444,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1465,14 +1465,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,6 +1485,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4106,7 +4106,7 @@
       <c r="AS1" s="3"/>
     </row>
     <row r="2" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="95"/>
@@ -4159,7 +4159,7 @@
       <c r="AS2" s="3"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="94" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="95"/>
@@ -4212,7 +4212,7 @@
       <c r="AS3" s="3"/>
     </row>
     <row r="4" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="95"/>
@@ -4265,7 +4265,7 @@
       <c r="AS4" s="3"/>
     </row>
     <row r="5" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="95"/>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="17" spans="1:45" ht="33.75" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="105" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="95"/>
@@ -5083,10 +5083,10 @@
       <c r="AS19" s="3"/>
     </row>
     <row r="20" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="95"/>
@@ -5178,8 +5178,8 @@
       <c r="AS20" s="3"/>
     </row>
     <row r="21" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="94" t="s">
+      <c r="A21" s="97"/>
+      <c r="B21" s="99" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="95"/>
@@ -5271,8 +5271,8 @@
       <c r="AS21" s="3"/>
     </row>
     <row r="22" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="95"/>
       <c r="D22" s="6"/>
       <c r="E22" s="24"/>
@@ -5320,8 +5320,8 @@
       <c r="AS22" s="3"/>
     </row>
     <row r="23" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="94" t="s">
+      <c r="A23" s="97"/>
+      <c r="B23" s="99" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="95"/>
@@ -5413,8 +5413,8 @@
       <c r="AS23" s="3"/>
     </row>
     <row r="24" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="97" t="s">
+      <c r="A24" s="97"/>
+      <c r="B24" s="96" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -5508,8 +5508,8 @@
       <c r="AS24" s="3"/>
     </row>
     <row r="25" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="27" t="s">
         <v>32</v>
       </c>
@@ -5601,8 +5601,8 @@
       <c r="AS25" s="3"/>
     </row>
     <row r="26" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="27" t="s">
         <v>33</v>
       </c>
@@ -5694,8 +5694,8 @@
       <c r="AS26" s="3"/>
     </row>
     <row r="27" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="27" t="s">
         <v>34</v>
       </c>
@@ -5787,8 +5787,8 @@
       <c r="AS27" s="3"/>
     </row>
     <row r="28" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="27" t="s">
         <v>35</v>
       </c>
@@ -5880,8 +5880,8 @@
       <c r="AS28" s="3"/>
     </row>
     <row r="29" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="27" t="s">
         <v>36</v>
       </c>
@@ -5973,8 +5973,8 @@
       <c r="AS29" s="3"/>
     </row>
     <row r="30" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="27" t="s">
         <v>37</v>
       </c>
@@ -6066,8 +6066,8 @@
       <c r="AS30" s="3"/>
     </row>
     <row r="31" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="24"/>
@@ -6115,8 +6115,8 @@
       <c r="AS31" s="3"/>
     </row>
     <row r="32" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="27" t="s">
         <v>38</v>
       </c>
@@ -6208,8 +6208,8 @@
       <c r="AS32" s="3"/>
     </row>
     <row r="33" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="27" t="s">
         <v>39</v>
       </c>
@@ -6301,8 +6301,8 @@
       <c r="AS33" s="3"/>
     </row>
     <row r="34" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="27" t="s">
         <v>40</v>
       </c>
@@ -6394,8 +6394,8 @@
       <c r="AS34" s="3"/>
     </row>
     <row r="35" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="24"/>
@@ -6443,8 +6443,8 @@
       <c r="AS35" s="3"/>
     </row>
     <row r="36" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="27" t="s">
         <v>41</v>
       </c>
@@ -6534,8 +6534,8 @@
       <c r="AS36" s="3"/>
     </row>
     <row r="37" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A37" s="98"/>
-      <c r="B37" s="98"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="27" t="s">
         <v>43</v>
       </c>
@@ -6627,8 +6627,8 @@
       <c r="AS37" s="3"/>
     </row>
     <row r="38" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="98"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="27" t="s">
         <v>44</v>
       </c>
@@ -6720,8 +6720,8 @@
       <c r="AS38" s="3"/>
     </row>
     <row r="39" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A39" s="98"/>
-      <c r="B39" s="98"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="27" t="s">
         <v>45</v>
       </c>
@@ -6813,8 +6813,8 @@
       <c r="AS39" s="3"/>
     </row>
     <row r="40" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A40" s="98"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="27" t="s">
         <v>46</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="AS40" s="3"/>
     </row>
     <row r="41" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A41" s="98"/>
+      <c r="A41" s="97"/>
       <c r="B41" s="6"/>
       <c r="C41" s="27"/>
       <c r="D41" s="6"/>
@@ -6995,8 +6995,8 @@
       <c r="AS41" s="3"/>
     </row>
     <row r="42" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A42" s="98"/>
-      <c r="B42" s="97" t="s">
+      <c r="A42" s="97"/>
+      <c r="B42" s="96" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -7090,8 +7090,8 @@
       <c r="AS42" s="3"/>
     </row>
     <row r="43" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="27" t="s">
         <v>50</v>
       </c>
@@ -7183,8 +7183,8 @@
       <c r="AS43" s="3"/>
     </row>
     <row r="44" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="27"/>
       <c r="D44" s="6"/>
       <c r="E44" s="24"/>
@@ -7232,8 +7232,8 @@
       <c r="AS44" s="3"/>
     </row>
     <row r="45" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="27" t="s">
         <v>51</v>
       </c>
@@ -7325,8 +7325,8 @@
       <c r="AS45" s="3"/>
     </row>
     <row r="46" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="27" t="s">
         <v>52</v>
       </c>
@@ -7418,8 +7418,8 @@
       <c r="AS46" s="3"/>
     </row>
     <row r="47" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="27" t="s">
         <v>53</v>
       </c>
@@ -7551,8 +7551,8 @@
       </c>
     </row>
     <row r="48" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="24"/>
@@ -7600,8 +7600,8 @@
       <c r="AS48" s="3"/>
     </row>
     <row r="49" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="27" t="s">
         <v>54</v>
       </c>
@@ -7693,8 +7693,8 @@
       <c r="AS49" s="3"/>
     </row>
     <row r="50" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="27" t="s">
         <v>55</v>
       </c>
@@ -7786,8 +7786,8 @@
       <c r="AS50" s="3"/>
     </row>
     <row r="51" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="98"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="28"/>
       <c r="D51" s="38"/>
       <c r="E51" s="24"/>
@@ -7835,8 +7835,8 @@
       <c r="AS51" s="3"/>
     </row>
     <row r="52" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="27" t="s">
         <v>56</v>
       </c>
@@ -7928,8 +7928,8 @@
       <c r="AS52" s="3"/>
     </row>
     <row r="53" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="98"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="27" t="s">
         <v>57</v>
       </c>
@@ -8021,8 +8021,8 @@
       <c r="AS53" s="3"/>
     </row>
     <row r="54" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="98"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="27" t="s">
         <v>58</v>
       </c>
@@ -8114,8 +8114,8 @@
       <c r="AS54" s="3"/>
     </row>
     <row r="55" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A55" s="98"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="24"/>
@@ -8163,8 +8163,8 @@
       <c r="AS55" s="3"/>
     </row>
     <row r="56" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A56" s="98"/>
-      <c r="B56" s="98"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="97"/>
       <c r="C56" s="27" t="s">
         <v>59</v>
       </c>
@@ -8256,8 +8256,8 @@
       <c r="AS56" s="3"/>
     </row>
     <row r="57" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A57" s="98"/>
-      <c r="B57" s="98"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="97"/>
       <c r="C57" s="27" t="s">
         <v>61</v>
       </c>
@@ -8349,8 +8349,8 @@
       <c r="AS57" s="3"/>
     </row>
     <row r="58" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A58" s="98"/>
-      <c r="B58" s="98"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="27" t="s">
         <v>62</v>
       </c>
@@ -8442,8 +8442,8 @@
       <c r="AS58" s="3"/>
     </row>
     <row r="59" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A59" s="98"/>
-      <c r="B59" s="98"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="97"/>
       <c r="C59" s="39" t="s">
         <v>63</v>
       </c>
@@ -8535,8 +8535,8 @@
       <c r="AS59" s="3"/>
     </row>
     <row r="60" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A60" s="98"/>
-      <c r="B60" s="98"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="97"/>
       <c r="C60" s="39" t="s">
         <v>64</v>
       </c>
@@ -8628,8 +8628,8 @@
       <c r="AS60" s="3"/>
     </row>
     <row r="61" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A61" s="98"/>
-      <c r="B61" s="98"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="24"/>
@@ -8677,8 +8677,8 @@
       <c r="AS61" s="3"/>
     </row>
     <row r="62" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A62" s="98"/>
-      <c r="B62" s="98"/>
+      <c r="A62" s="97"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="39" t="s">
         <v>65</v>
       </c>
@@ -8770,8 +8770,8 @@
       <c r="AS62" s="3"/>
     </row>
     <row r="63" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A63" s="98"/>
-      <c r="B63" s="99"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="39"/>
       <c r="D63" s="6"/>
       <c r="E63" s="24"/>
@@ -8819,8 +8819,8 @@
       <c r="AS63" s="3"/>
     </row>
     <row r="64" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A64" s="98"/>
-      <c r="B64" s="97" t="s">
+      <c r="A64" s="97"/>
+      <c r="B64" s="96" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -8914,8 +8914,8 @@
       <c r="AS64" s="3"/>
     </row>
     <row r="65" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A65" s="98"/>
-      <c r="B65" s="98"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="97"/>
       <c r="C65" s="27" t="s">
         <v>68</v>
       </c>
@@ -9007,8 +9007,8 @@
       <c r="AS65" s="3"/>
     </row>
     <row r="66" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A66" s="98"/>
-      <c r="B66" s="98"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="27" t="s">
         <v>70</v>
       </c>
@@ -9100,8 +9100,8 @@
       <c r="AS66" s="3"/>
     </row>
     <row r="67" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A67" s="98"/>
-      <c r="B67" s="98"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="27" t="s">
         <v>72</v>
       </c>
@@ -9193,8 +9193,8 @@
       <c r="AS67" s="3"/>
     </row>
     <row r="68" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A68" s="98"/>
-      <c r="B68" s="98"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="28"/>
       <c r="D68" s="40"/>
       <c r="E68" s="24"/>
@@ -9262,8 +9262,8 @@
       <c r="AS68" s="3"/>
     </row>
     <row r="69" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A69" s="98"/>
-      <c r="B69" s="98"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="27" t="s">
         <v>74</v>
       </c>
@@ -9353,8 +9353,8 @@
       <c r="AS69" s="3"/>
     </row>
     <row r="70" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A70" s="98"/>
-      <c r="B70" s="98"/>
+      <c r="A70" s="97"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="28"/>
       <c r="D70" s="40"/>
       <c r="E70" s="24"/>
@@ -9402,8 +9402,8 @@
       <c r="AS70" s="3"/>
     </row>
     <row r="71" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A71" s="98"/>
-      <c r="B71" s="98"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="27" t="s">
         <v>76</v>
       </c>
@@ -9493,8 +9493,8 @@
       <c r="AS71" s="3"/>
     </row>
     <row r="72" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A72" s="98"/>
-      <c r="B72" s="98"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="97"/>
       <c r="C72" s="27" t="s">
         <v>77</v>
       </c>
@@ -9584,8 +9584,8 @@
       <c r="AS72" s="3"/>
     </row>
     <row r="73" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A73" s="98"/>
-      <c r="B73" s="98"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="27" t="s">
         <v>79</v>
       </c>
@@ -9677,8 +9677,8 @@
       <c r="AS73" s="3"/>
     </row>
     <row r="74" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A74" s="98"/>
-      <c r="B74" s="98"/>
+      <c r="A74" s="97"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="27" t="s">
         <v>80</v>
       </c>
@@ -9770,8 +9770,8 @@
       <c r="AS74" s="3"/>
     </row>
     <row r="75" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A75" s="98"/>
-      <c r="B75" s="98"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="27" t="s">
         <v>81</v>
       </c>
@@ -9863,8 +9863,8 @@
       <c r="AS75" s="3"/>
     </row>
     <row r="76" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A76" s="98"/>
-      <c r="B76" s="98"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="97"/>
       <c r="C76" s="27" t="s">
         <v>82</v>
       </c>
@@ -9956,8 +9956,8 @@
       <c r="AS76" s="3"/>
     </row>
     <row r="77" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A77" s="98"/>
-      <c r="B77" s="98"/>
+      <c r="A77" s="97"/>
+      <c r="B77" s="97"/>
       <c r="C77" s="28"/>
       <c r="D77" s="40"/>
       <c r="E77" s="24"/>
@@ -10005,8 +10005,8 @@
       <c r="AS77" s="3"/>
     </row>
     <row r="78" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A78" s="98"/>
-      <c r="B78" s="98"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="97"/>
       <c r="C78" s="27" t="s">
         <v>83</v>
       </c>
@@ -10098,8 +10098,8 @@
       <c r="AS78" s="3"/>
     </row>
     <row r="79" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A79" s="98"/>
-      <c r="B79" s="98"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="97"/>
       <c r="C79" s="27" t="s">
         <v>84</v>
       </c>
@@ -10191,8 +10191,8 @@
       <c r="AS79" s="3"/>
     </row>
     <row r="80" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A80" s="98"/>
-      <c r="B80" s="98"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="27" t="s">
         <v>85</v>
       </c>
@@ -10284,8 +10284,8 @@
       <c r="AS80" s="3"/>
     </row>
     <row r="81" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A81" s="98"/>
-      <c r="B81" s="98"/>
+      <c r="A81" s="97"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="27" t="s">
         <v>86</v>
       </c>
@@ -10377,8 +10377,8 @@
       <c r="AS81" s="3"/>
     </row>
     <row r="82" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A82" s="98"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="27" t="s">
         <v>87</v>
       </c>
@@ -10470,8 +10470,8 @@
       <c r="AS82" s="3"/>
     </row>
     <row r="83" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A83" s="98"/>
-      <c r="B83" s="98"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="27" t="s">
         <v>88</v>
       </c>
@@ -10563,8 +10563,8 @@
       <c r="AS83" s="3"/>
     </row>
     <row r="84" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A84" s="98"/>
-      <c r="B84" s="98"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="97"/>
       <c r="C84" s="27" t="s">
         <v>89</v>
       </c>
@@ -10656,8 +10656,8 @@
       <c r="AS84" s="3"/>
     </row>
     <row r="85" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A85" s="98"/>
-      <c r="B85" s="98"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="39" t="s">
         <v>90</v>
       </c>
@@ -10749,8 +10749,8 @@
       <c r="AS85" s="3"/>
     </row>
     <row r="86" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A86" s="98"/>
-      <c r="B86" s="98"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="38"/>
       <c r="D86" s="40"/>
       <c r="E86" s="24"/>
@@ -10808,8 +10808,8 @@
       <c r="AS86" s="3"/>
     </row>
     <row r="87" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A87" s="98"/>
-      <c r="B87" s="98"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="27" t="s">
         <v>91</v>
       </c>
@@ -10901,8 +10901,8 @@
       <c r="AS87" s="3"/>
     </row>
     <row r="88" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A88" s="98"/>
-      <c r="B88" s="98"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="97"/>
       <c r="C88" s="27"/>
       <c r="D88" s="42"/>
       <c r="E88" s="24"/>
@@ -10960,8 +10960,8 @@
       <c r="AS88" s="3"/>
     </row>
     <row r="89" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A89" s="98"/>
-      <c r="B89" s="98"/>
+      <c r="A89" s="97"/>
+      <c r="B89" s="97"/>
       <c r="C89" s="27" t="s">
         <v>92</v>
       </c>
@@ -11053,8 +11053,8 @@
       <c r="AS89" s="3"/>
     </row>
     <row r="90" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A90" s="98"/>
-      <c r="B90" s="98"/>
+      <c r="A90" s="97"/>
+      <c r="B90" s="97"/>
       <c r="C90" s="27" t="s">
         <v>93</v>
       </c>
@@ -11146,8 +11146,8 @@
       <c r="AS90" s="3"/>
     </row>
     <row r="91" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A91" s="98"/>
-      <c r="B91" s="98"/>
+      <c r="A91" s="97"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="27" t="s">
         <v>95</v>
       </c>
@@ -11239,8 +11239,8 @@
       <c r="AS91" s="3"/>
     </row>
     <row r="92" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A92" s="98"/>
-      <c r="B92" s="98"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="27" t="s">
         <v>96</v>
       </c>
@@ -11332,8 +11332,8 @@
       <c r="AS92" s="3"/>
     </row>
     <row r="93" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A93" s="98"/>
-      <c r="B93" s="98"/>
+      <c r="A93" s="97"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="27" t="s">
         <v>97</v>
       </c>
@@ -11425,8 +11425,8 @@
       <c r="AS93" s="3"/>
     </row>
     <row r="94" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A94" s="98"/>
-      <c r="B94" s="98"/>
+      <c r="A94" s="97"/>
+      <c r="B94" s="97"/>
       <c r="C94" s="27" t="s">
         <v>98</v>
       </c>
@@ -11518,8 +11518,8 @@
       <c r="AS94" s="3"/>
     </row>
     <row r="95" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A95" s="98"/>
-      <c r="B95" s="98"/>
+      <c r="A95" s="97"/>
+      <c r="B95" s="97"/>
       <c r="C95" s="27" t="s">
         <v>99</v>
       </c>
@@ -11611,8 +11611,8 @@
       <c r="AS95" s="3"/>
     </row>
     <row r="96" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A96" s="98"/>
-      <c r="B96" s="98"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="97"/>
       <c r="C96" s="27" t="s">
         <v>100</v>
       </c>
@@ -11704,8 +11704,8 @@
       <c r="AS96" s="3"/>
     </row>
     <row r="97" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A97" s="98"/>
-      <c r="B97" s="99"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="98"/>
       <c r="C97" s="27" t="s">
         <v>101</v>
       </c>
@@ -11797,8 +11797,8 @@
       <c r="AS97" s="3"/>
     </row>
     <row r="98" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A98" s="98"/>
-      <c r="B98" s="97" t="s">
+      <c r="A98" s="97"/>
+      <c r="B98" s="96" t="s">
         <v>102</v>
       </c>
       <c r="C98" s="43" t="s">
@@ -11892,8 +11892,8 @@
       <c r="AS98" s="3"/>
     </row>
     <row r="99" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A99" s="98"/>
-      <c r="B99" s="98"/>
+      <c r="A99" s="97"/>
+      <c r="B99" s="97"/>
       <c r="C99" s="43" t="s">
         <v>104</v>
       </c>
@@ -11985,8 +11985,8 @@
       <c r="AS99" s="3"/>
     </row>
     <row r="100" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A100" s="98"/>
-      <c r="B100" s="98"/>
+      <c r="A100" s="97"/>
+      <c r="B100" s="97"/>
       <c r="C100" s="43" t="s">
         <v>105</v>
       </c>
@@ -12078,8 +12078,8 @@
       <c r="AS100" s="3"/>
     </row>
     <row r="101" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A101" s="98"/>
-      <c r="B101" s="98"/>
+      <c r="A101" s="97"/>
+      <c r="B101" s="97"/>
       <c r="C101" s="43" t="s">
         <v>106</v>
       </c>
@@ -12171,8 +12171,8 @@
       <c r="AS101" s="3"/>
     </row>
     <row r="102" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A102" s="98"/>
-      <c r="B102" s="98"/>
+      <c r="A102" s="97"/>
+      <c r="B102" s="97"/>
       <c r="C102" s="43" t="s">
         <v>107</v>
       </c>
@@ -12264,8 +12264,8 @@
       <c r="AS102" s="3"/>
     </row>
     <row r="103" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A103" s="98"/>
-      <c r="B103" s="98"/>
+      <c r="A103" s="97"/>
+      <c r="B103" s="97"/>
       <c r="C103" s="43" t="s">
         <v>108</v>
       </c>
@@ -12319,8 +12319,8 @@
       <c r="AS103" s="3"/>
     </row>
     <row r="104" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A104" s="98"/>
-      <c r="B104" s="98"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="97"/>
       <c r="C104" s="43" t="s">
         <v>109</v>
       </c>
@@ -12412,8 +12412,8 @@
       <c r="AS104" s="3"/>
     </row>
     <row r="105" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A105" s="98"/>
-      <c r="B105" s="98"/>
+      <c r="A105" s="97"/>
+      <c r="B105" s="97"/>
       <c r="C105" s="43" t="s">
         <v>110</v>
       </c>
@@ -12505,8 +12505,8 @@
       <c r="AS105" s="3"/>
     </row>
     <row r="106" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A106" s="98"/>
-      <c r="B106" s="98"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="97"/>
       <c r="C106" s="43" t="s">
         <v>111</v>
       </c>
@@ -12598,8 +12598,8 @@
       <c r="AS106" s="3"/>
     </row>
     <row r="107" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A107" s="98"/>
-      <c r="B107" s="98"/>
+      <c r="A107" s="97"/>
+      <c r="B107" s="97"/>
       <c r="C107" s="43" t="s">
         <v>112</v>
       </c>
@@ -12691,8 +12691,8 @@
       <c r="AS107" s="3"/>
     </row>
     <row r="108" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A108" s="98"/>
-      <c r="B108" s="98"/>
+      <c r="A108" s="97"/>
+      <c r="B108" s="97"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
       <c r="E108" s="24"/>
@@ -12740,8 +12740,8 @@
       <c r="AS108" s="3"/>
     </row>
     <row r="109" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A109" s="98"/>
-      <c r="B109" s="98"/>
+      <c r="A109" s="97"/>
+      <c r="B109" s="97"/>
       <c r="C109" s="43" t="s">
         <v>113</v>
       </c>
@@ -12833,8 +12833,8 @@
       <c r="AS109" s="3"/>
     </row>
     <row r="110" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A110" s="98"/>
-      <c r="B110" s="98"/>
+      <c r="A110" s="97"/>
+      <c r="B110" s="97"/>
       <c r="C110" s="43" t="s">
         <v>114</v>
       </c>
@@ -12926,8 +12926,8 @@
       <c r="AS110" s="3"/>
     </row>
     <row r="111" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A111" s="98"/>
-      <c r="B111" s="98"/>
+      <c r="A111" s="97"/>
+      <c r="B111" s="97"/>
       <c r="C111" s="43" t="s">
         <v>115</v>
       </c>
@@ -13019,8 +13019,8 @@
       <c r="AS111" s="3"/>
     </row>
     <row r="112" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A112" s="98"/>
-      <c r="B112" s="99"/>
+      <c r="A112" s="97"/>
+      <c r="B112" s="98"/>
       <c r="C112" s="43" t="s">
         <v>116</v>
       </c>
@@ -13112,8 +13112,8 @@
       <c r="AS112" s="3"/>
     </row>
     <row r="113" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A113" s="98"/>
-      <c r="B113" s="97" t="s">
+      <c r="A113" s="97"/>
+      <c r="B113" s="96" t="s">
         <v>117</v>
       </c>
       <c r="C113" s="27" t="s">
@@ -13207,8 +13207,8 @@
       <c r="AS113" s="3"/>
     </row>
     <row r="114" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A114" s="98"/>
-      <c r="B114" s="98"/>
+      <c r="A114" s="97"/>
+      <c r="B114" s="97"/>
       <c r="C114" s="27" t="s">
         <v>119</v>
       </c>
@@ -13300,8 +13300,8 @@
       <c r="AS114" s="3"/>
     </row>
     <row r="115" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A115" s="98"/>
-      <c r="B115" s="98"/>
+      <c r="A115" s="97"/>
+      <c r="B115" s="97"/>
       <c r="C115" s="27" t="s">
         <v>120</v>
       </c>
@@ -13393,8 +13393,8 @@
       <c r="AS115" s="3"/>
     </row>
     <row r="116" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A116" s="98"/>
-      <c r="B116" s="98"/>
+      <c r="A116" s="97"/>
+      <c r="B116" s="97"/>
       <c r="C116" s="27" t="s">
         <v>121</v>
       </c>
@@ -13486,8 +13486,8 @@
       <c r="AS116" s="3"/>
     </row>
     <row r="117" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A117" s="98"/>
-      <c r="B117" s="98"/>
+      <c r="A117" s="97"/>
+      <c r="B117" s="97"/>
       <c r="C117" s="27" t="s">
         <v>122</v>
       </c>
@@ -13579,8 +13579,8 @@
       <c r="AS117" s="3"/>
     </row>
     <row r="118" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A118" s="98"/>
-      <c r="B118" s="98"/>
+      <c r="A118" s="97"/>
+      <c r="B118" s="97"/>
       <c r="C118" s="27" t="s">
         <v>123</v>
       </c>
@@ -13672,8 +13672,8 @@
       <c r="AS118" s="3"/>
     </row>
     <row r="119" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A119" s="98"/>
-      <c r="B119" s="98"/>
+      <c r="A119" s="97"/>
+      <c r="B119" s="97"/>
       <c r="C119" s="27" t="s">
         <v>124</v>
       </c>
@@ -13765,8 +13765,8 @@
       <c r="AS119" s="3"/>
     </row>
     <row r="120" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A120" s="98"/>
-      <c r="B120" s="98"/>
+      <c r="A120" s="97"/>
+      <c r="B120" s="97"/>
       <c r="C120" s="27" t="s">
         <v>125</v>
       </c>
@@ -13858,8 +13858,8 @@
       <c r="AS120" s="3"/>
     </row>
     <row r="121" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A121" s="98"/>
-      <c r="B121" s="98"/>
+      <c r="A121" s="97"/>
+      <c r="B121" s="97"/>
       <c r="C121" s="27" t="s">
         <v>126</v>
       </c>
@@ -13951,8 +13951,8 @@
       <c r="AS121" s="3"/>
     </row>
     <row r="122" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A122" s="98"/>
-      <c r="B122" s="98"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="97"/>
       <c r="C122" s="27" t="s">
         <v>127</v>
       </c>
@@ -14044,8 +14044,8 @@
       <c r="AS122" s="3"/>
     </row>
     <row r="123" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A123" s="98"/>
-      <c r="B123" s="98"/>
+      <c r="A123" s="97"/>
+      <c r="B123" s="97"/>
       <c r="C123" s="27" t="s">
         <v>128</v>
       </c>
@@ -14137,8 +14137,8 @@
       <c r="AS123" s="3"/>
     </row>
     <row r="124" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A124" s="98"/>
-      <c r="B124" s="98"/>
+      <c r="A124" s="97"/>
+      <c r="B124" s="97"/>
       <c r="C124" s="27" t="s">
         <v>129</v>
       </c>
@@ -14230,8 +14230,8 @@
       <c r="AS124" s="3"/>
     </row>
     <row r="125" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A125" s="98"/>
-      <c r="B125" s="98"/>
+      <c r="A125" s="97"/>
+      <c r="B125" s="97"/>
       <c r="C125" s="27" t="s">
         <v>130</v>
       </c>
@@ -14285,8 +14285,8 @@
       <c r="AS125" s="3"/>
     </row>
     <row r="126" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A126" s="98"/>
-      <c r="B126" s="99"/>
+      <c r="A126" s="97"/>
+      <c r="B126" s="98"/>
       <c r="C126" s="27" t="s">
         <v>131</v>
       </c>
@@ -14378,8 +14378,8 @@
       <c r="AS126" s="3"/>
     </row>
     <row r="127" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A127" s="98"/>
-      <c r="B127" s="97" t="s">
+      <c r="A127" s="97"/>
+      <c r="B127" s="96" t="s">
         <v>132</v>
       </c>
       <c r="C127" s="43" t="s">
@@ -14473,8 +14473,8 @@
       <c r="AS127" s="3"/>
     </row>
     <row r="128" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A128" s="98"/>
-      <c r="B128" s="98"/>
+      <c r="A128" s="97"/>
+      <c r="B128" s="97"/>
       <c r="C128" s="43" t="s">
         <v>134</v>
       </c>
@@ -14566,8 +14566,8 @@
       <c r="AS128" s="3"/>
     </row>
     <row r="129" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A129" s="98"/>
-      <c r="B129" s="98"/>
+      <c r="A129" s="97"/>
+      <c r="B129" s="97"/>
       <c r="C129" s="43" t="s">
         <v>135</v>
       </c>
@@ -14659,8 +14659,8 @@
       <c r="AS129" s="3"/>
     </row>
     <row r="130" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A130" s="98"/>
-      <c r="B130" s="98"/>
+      <c r="A130" s="97"/>
+      <c r="B130" s="97"/>
       <c r="C130" s="43" t="s">
         <v>136</v>
       </c>
@@ -14752,8 +14752,8 @@
       <c r="AS130" s="3"/>
     </row>
     <row r="131" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A131" s="98"/>
-      <c r="B131" s="98"/>
+      <c r="A131" s="97"/>
+      <c r="B131" s="97"/>
       <c r="C131" s="43" t="s">
         <v>137</v>
       </c>
@@ -14845,8 +14845,8 @@
       <c r="AS131" s="3"/>
     </row>
     <row r="132" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A132" s="98"/>
-      <c r="B132" s="98"/>
+      <c r="A132" s="97"/>
+      <c r="B132" s="97"/>
       <c r="C132" s="43" t="s">
         <v>138</v>
       </c>
@@ -14938,8 +14938,8 @@
       <c r="AS132" s="3"/>
     </row>
     <row r="133" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A133" s="98"/>
-      <c r="B133" s="98"/>
+      <c r="A133" s="97"/>
+      <c r="B133" s="97"/>
       <c r="C133" s="43"/>
       <c r="D133" s="6"/>
       <c r="E133" s="24"/>
@@ -14997,8 +14997,8 @@
       <c r="AS133" s="3"/>
     </row>
     <row r="134" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A134" s="98"/>
-      <c r="B134" s="98"/>
+      <c r="A134" s="97"/>
+      <c r="B134" s="97"/>
       <c r="C134" s="43" t="s">
         <v>139</v>
       </c>
@@ -15090,8 +15090,8 @@
       <c r="AS134" s="3"/>
     </row>
     <row r="135" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A135" s="98"/>
-      <c r="B135" s="98"/>
+      <c r="A135" s="97"/>
+      <c r="B135" s="97"/>
       <c r="C135" s="43"/>
       <c r="D135" s="6"/>
       <c r="E135" s="21"/>
@@ -15149,8 +15149,8 @@
       <c r="AS135" s="3"/>
     </row>
     <row r="136" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A136" s="98"/>
-      <c r="B136" s="98"/>
+      <c r="A136" s="97"/>
+      <c r="B136" s="97"/>
       <c r="C136" s="43" t="s">
         <v>140</v>
       </c>
@@ -15242,8 +15242,8 @@
       <c r="AS136" s="3"/>
     </row>
     <row r="137" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A137" s="98"/>
-      <c r="B137" s="98"/>
+      <c r="A137" s="97"/>
+      <c r="B137" s="97"/>
       <c r="C137" s="43"/>
       <c r="D137" s="6"/>
       <c r="E137" s="24"/>
@@ -15301,8 +15301,8 @@
       <c r="AS137" s="3"/>
     </row>
     <row r="138" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A138" s="98"/>
-      <c r="B138" s="98"/>
+      <c r="A138" s="97"/>
+      <c r="B138" s="97"/>
       <c r="C138" s="43" t="s">
         <v>141</v>
       </c>
@@ -15394,8 +15394,8 @@
       <c r="AS138" s="3"/>
     </row>
     <row r="139" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A139" s="98"/>
-      <c r="B139" s="98"/>
+      <c r="A139" s="97"/>
+      <c r="B139" s="97"/>
       <c r="C139" s="43" t="s">
         <v>142</v>
       </c>
@@ -15487,8 +15487,8 @@
       <c r="AS139" s="3"/>
     </row>
     <row r="140" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A140" s="98"/>
-      <c r="B140" s="98"/>
+      <c r="A140" s="97"/>
+      <c r="B140" s="97"/>
       <c r="C140" s="43" t="s">
         <v>143</v>
       </c>
@@ -15580,8 +15580,8 @@
       <c r="AS140" s="3"/>
     </row>
     <row r="141" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A141" s="98"/>
-      <c r="B141" s="98"/>
+      <c r="A141" s="97"/>
+      <c r="B141" s="97"/>
       <c r="C141" s="43" t="s">
         <v>144</v>
       </c>
@@ -15673,8 +15673,8 @@
       <c r="AS141" s="3"/>
     </row>
     <row r="142" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A142" s="98"/>
-      <c r="B142" s="98"/>
+      <c r="A142" s="97"/>
+      <c r="B142" s="97"/>
       <c r="C142" s="43" t="s">
         <v>145</v>
       </c>
@@ -15766,8 +15766,8 @@
       <c r="AS142" s="3"/>
     </row>
     <row r="143" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A143" s="98"/>
-      <c r="B143" s="99"/>
+      <c r="A143" s="97"/>
+      <c r="B143" s="98"/>
       <c r="C143" s="43" t="s">
         <v>146</v>
       </c>
@@ -15859,8 +15859,8 @@
       <c r="AS143" s="3"/>
     </row>
     <row r="144" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A144" s="98"/>
-      <c r="B144" s="97" t="s">
+      <c r="A144" s="97"/>
+      <c r="B144" s="96" t="s">
         <v>147</v>
       </c>
       <c r="C144" s="43" t="s">
@@ -15954,8 +15954,8 @@
       <c r="AS144" s="3"/>
     </row>
     <row r="145" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A145" s="98"/>
-      <c r="B145" s="99"/>
+      <c r="A145" s="97"/>
+      <c r="B145" s="98"/>
       <c r="C145" s="43" t="s">
         <v>149</v>
       </c>
@@ -16047,7 +16047,7 @@
       <c r="AS145" s="3"/>
     </row>
     <row r="146" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A146" s="98"/>
+      <c r="A146" s="97"/>
       <c r="B146" s="101" t="s">
         <v>20</v>
       </c>
@@ -16156,7 +16156,7 @@
       <c r="AS146" s="3"/>
     </row>
     <row r="147" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A147" s="99"/>
+      <c r="A147" s="98"/>
       <c r="B147" s="103"/>
       <c r="C147" s="104"/>
       <c r="D147" s="4" t="s">
@@ -55087,6 +55087,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="B146:C147"/>
+    <mergeCell ref="B127:B143"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B42:B63"/>
+    <mergeCell ref="B64:B97"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -55098,15 +55105,8 @@
     <mergeCell ref="B98:B112"/>
     <mergeCell ref="B113:B126"/>
     <mergeCell ref="B144:B145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="B146:C147"/>
-    <mergeCell ref="B127:B143"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B42:B63"/>
-    <mergeCell ref="B64:B97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -55124,8 +55124,8 @@
   </sheetPr>
   <dimension ref="A1:AU108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J106" workbookViewId="0">
-      <selection activeCell="L114" sqref="L114"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -55140,7 +55140,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="42" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="95"/>
@@ -55195,7 +55195,7 @@
       <c r="AU1" s="49"/>
     </row>
     <row r="2" spans="1:47" ht="42" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="95"/>
@@ -55250,7 +55250,7 @@
       <c r="AU2" s="49"/>
     </row>
     <row r="3" spans="1:47" ht="42" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="110" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="95"/>
@@ -55305,7 +55305,7 @@
       <c r="AU3" s="49"/>
     </row>
     <row r="4" spans="1:47" ht="42" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="110" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="95"/>
@@ -55412,10 +55412,10 @@
     </row>
     <row r="6" spans="1:47" ht="42" customHeight="1">
       <c r="A6" s="50"/>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="95"/>
       <c r="E6" s="56"/>
       <c r="F6" s="49"/>
@@ -55805,7 +55805,7 @@
     </row>
     <row r="13" spans="1:47" ht="42" customHeight="1">
       <c r="A13" s="50"/>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="112" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="95"/>
@@ -56019,10 +56019,10 @@
       <c r="AU15" s="49"/>
     </row>
     <row r="16" spans="1:47" ht="42" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="113" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="95"/>
@@ -56126,8 +56126,8 @@
       <c r="AU16" s="49"/>
     </row>
     <row r="17" spans="1:47" ht="42" customHeight="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="106" t="s">
+      <c r="A17" s="97"/>
+      <c r="B17" s="113" t="s">
         <v>153</v>
       </c>
       <c r="C17" s="95"/>
@@ -56231,8 +56231,8 @@
       <c r="AU17" s="49"/>
     </row>
     <row r="18" spans="1:47" ht="42" customHeight="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="106"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="95"/>
       <c r="D18" s="6"/>
       <c r="E18" s="67"/>
@@ -56288,8 +56288,8 @@
       <c r="AU18" s="49"/>
     </row>
     <row r="19" spans="1:47" ht="42" customHeight="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="107" t="s">
+      <c r="A19" s="97"/>
+      <c r="B19" s="114" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="95"/>
@@ -56393,8 +56393,8 @@
       <c r="AU19" s="49"/>
     </row>
     <row r="20" spans="1:47" ht="42" customHeight="1">
-      <c r="A20" s="98"/>
-      <c r="B20" s="108" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="106" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="50" t="s">
@@ -56500,8 +56500,8 @@
       <c r="AU20" s="49"/>
     </row>
     <row r="21" spans="1:47" ht="42" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="50"/>
       <c r="D21" s="6"/>
       <c r="E21" s="67"/>
@@ -56551,8 +56551,8 @@
       <c r="AU21" s="49"/>
     </row>
     <row r="22" spans="1:47" ht="42" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
       </c>
@@ -56652,8 +56652,8 @@
       <c r="AU22" s="49"/>
     </row>
     <row r="23" spans="1:47" ht="42" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="50" t="s">
         <v>156</v>
       </c>
@@ -56757,8 +56757,8 @@
       <c r="AU23" s="49"/>
     </row>
     <row r="24" spans="1:47" ht="42" customHeight="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="50" t="s">
         <v>157</v>
       </c>
@@ -56862,8 +56862,8 @@
       <c r="AU24" s="49"/>
     </row>
     <row r="25" spans="1:47" ht="42" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="50" t="s">
         <v>158</v>
       </c>
@@ -56967,8 +56967,8 @@
       <c r="AU25" s="49"/>
     </row>
     <row r="26" spans="1:47" ht="42" customHeight="1">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="50" t="s">
         <v>159</v>
       </c>
@@ -57072,8 +57072,8 @@
       <c r="AU26" s="49"/>
     </row>
     <row r="27" spans="1:47" ht="42" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="50" t="s">
         <v>160</v>
       </c>
@@ -57177,8 +57177,8 @@
       <c r="AU27" s="49"/>
     </row>
     <row r="28" spans="1:47" ht="42" customHeight="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="50" t="s">
         <v>161</v>
       </c>
@@ -57282,8 +57282,8 @@
       <c r="AU28" s="49"/>
     </row>
     <row r="29" spans="1:47" ht="42" customHeight="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="50" t="s">
         <v>162</v>
       </c>
@@ -57387,8 +57387,8 @@
       <c r="AU29" s="49"/>
     </row>
     <row r="30" spans="1:47" ht="42" customHeight="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="74"/>
       <c r="D30" s="6"/>
       <c r="E30" s="67"/>
@@ -57438,8 +57438,8 @@
       <c r="AU30" s="49"/>
     </row>
     <row r="31" spans="1:47" ht="42" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="50" t="s">
         <v>163</v>
       </c>
@@ -57541,8 +57541,8 @@
       <c r="AU31" s="49"/>
     </row>
     <row r="32" spans="1:47" ht="42" customHeight="1">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="50" t="s">
         <v>164</v>
       </c>
@@ -57646,8 +57646,8 @@
       <c r="AU32" s="49"/>
     </row>
     <row r="33" spans="1:47" ht="42" customHeight="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="50" t="s">
         <v>165</v>
       </c>
@@ -57751,8 +57751,8 @@
       <c r="AU33" s="49"/>
     </row>
     <row r="34" spans="1:47" ht="42" customHeight="1">
-      <c r="A34" s="98"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="50" t="s">
         <v>166</v>
       </c>
@@ -57856,8 +57856,8 @@
       <c r="AU34" s="49"/>
     </row>
     <row r="35" spans="1:47" ht="42" customHeight="1">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="50" t="s">
         <v>167</v>
       </c>
@@ -57961,8 +57961,8 @@
       <c r="AU35" s="49"/>
     </row>
     <row r="36" spans="1:47" ht="42" customHeight="1">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="50" t="s">
         <v>168</v>
       </c>
@@ -58066,8 +58066,8 @@
       <c r="AU36" s="49"/>
     </row>
     <row r="37" spans="1:47" ht="42" customHeight="1">
-      <c r="A37" s="98"/>
-      <c r="B37" s="98"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="50" t="s">
         <v>169</v>
       </c>
@@ -58171,8 +58171,8 @@
       <c r="AU37" s="49"/>
     </row>
     <row r="38" spans="1:47" ht="42" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="98"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="50" t="s">
         <v>170</v>
       </c>
@@ -58276,8 +58276,8 @@
       <c r="AU38" s="49"/>
     </row>
     <row r="39" spans="1:47" ht="42" customHeight="1">
-      <c r="A39" s="98"/>
-      <c r="B39" s="98"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="50" t="s">
         <v>171</v>
       </c>
@@ -58381,8 +58381,8 @@
       <c r="AU39" s="49"/>
     </row>
     <row r="40" spans="1:47" ht="42" customHeight="1">
-      <c r="A40" s="98"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="50" t="s">
         <v>172</v>
       </c>
@@ -58486,8 +58486,8 @@
       <c r="AU40" s="49"/>
     </row>
     <row r="41" spans="1:47" ht="42" customHeight="1">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="50" t="s">
         <v>173</v>
       </c>
@@ -58591,8 +58591,8 @@
       <c r="AU41" s="49"/>
     </row>
     <row r="42" spans="1:47" ht="42" customHeight="1">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="97"/>
       <c r="C42" s="50" t="s">
         <v>174</v>
       </c>
@@ -58696,8 +58696,8 @@
       <c r="AU42" s="49"/>
     </row>
     <row r="43" spans="1:47" ht="42" customHeight="1">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="50" t="s">
         <v>175</v>
       </c>
@@ -58801,8 +58801,8 @@
       <c r="AU43" s="49"/>
     </row>
     <row r="44" spans="1:47" ht="42" customHeight="1">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="50" t="s">
         <v>176</v>
       </c>
@@ -58906,8 +58906,8 @@
       <c r="AU44" s="49"/>
     </row>
     <row r="45" spans="1:47" ht="42" customHeight="1">
-      <c r="A45" s="98"/>
-      <c r="B45" s="99"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="50" t="s">
         <v>177</v>
       </c>
@@ -59011,8 +59011,8 @@
       <c r="AU45" s="49"/>
     </row>
     <row r="46" spans="1:47" ht="42" customHeight="1">
-      <c r="A46" s="98"/>
-      <c r="B46" s="108" t="s">
+      <c r="A46" s="97"/>
+      <c r="B46" s="106" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="74" t="s">
@@ -59118,8 +59118,8 @@
       <c r="AU46" s="49"/>
     </row>
     <row r="47" spans="1:47" ht="42" customHeight="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="74" t="s">
         <v>179</v>
       </c>
@@ -59223,8 +59223,8 @@
       <c r="AU47" s="49"/>
     </row>
     <row r="48" spans="1:47" ht="42" customHeight="1">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="74" t="s">
         <v>180</v>
       </c>
@@ -59328,8 +59328,8 @@
       <c r="AU48" s="49"/>
     </row>
     <row r="49" spans="1:47" ht="42" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="74" t="s">
         <v>181</v>
       </c>
@@ -59433,8 +59433,8 @@
       <c r="AU49" s="49"/>
     </row>
     <row r="50" spans="1:47" ht="42" customHeight="1">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="74" t="s">
         <v>182</v>
       </c>
@@ -59538,8 +59538,8 @@
       <c r="AU50" s="49"/>
     </row>
     <row r="51" spans="1:47" ht="42" customHeight="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="98"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="74" t="s">
         <v>183</v>
       </c>
@@ -59643,8 +59643,8 @@
       <c r="AU51" s="49"/>
     </row>
     <row r="52" spans="1:47" ht="42" customHeight="1">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="74" t="s">
         <v>184</v>
       </c>
@@ -59748,8 +59748,8 @@
       <c r="AU52" s="49"/>
     </row>
     <row r="53" spans="1:47" ht="42" customHeight="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="98"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="74" t="s">
         <v>185</v>
       </c>
@@ -59853,8 +59853,8 @@
       <c r="AU53" s="49"/>
     </row>
     <row r="54" spans="1:47" ht="42" customHeight="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="98"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="74" t="s">
         <v>186</v>
       </c>
@@ -59958,8 +59958,8 @@
       <c r="AU54" s="49"/>
     </row>
     <row r="55" spans="1:47" ht="42" customHeight="1">
-      <c r="A55" s="98"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="74" t="s">
         <v>187</v>
       </c>
@@ -60063,8 +60063,8 @@
       <c r="AU55" s="49"/>
     </row>
     <row r="56" spans="1:47" ht="42" customHeight="1">
-      <c r="A56" s="98"/>
-      <c r="B56" s="98"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="97"/>
       <c r="C56" s="74"/>
       <c r="D56" s="74"/>
       <c r="E56" s="67"/>
@@ -60120,8 +60120,8 @@
       <c r="AU56" s="49"/>
     </row>
     <row r="57" spans="1:47" ht="42" customHeight="1">
-      <c r="A57" s="98"/>
-      <c r="B57" s="98"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="97"/>
       <c r="C57" s="74" t="s">
         <v>188</v>
       </c>
@@ -60225,8 +60225,8 @@
       <c r="AU57" s="49"/>
     </row>
     <row r="58" spans="1:47" ht="42" customHeight="1">
-      <c r="A58" s="98"/>
-      <c r="B58" s="98"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="74" t="s">
         <v>189</v>
       </c>
@@ -60330,8 +60330,8 @@
       <c r="AU58" s="49"/>
     </row>
     <row r="59" spans="1:47" ht="42" customHeight="1">
-      <c r="A59" s="98"/>
-      <c r="B59" s="98"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="97"/>
       <c r="C59" s="74" t="s">
         <v>190</v>
       </c>
@@ -60435,8 +60435,8 @@
       <c r="AU59" s="49"/>
     </row>
     <row r="60" spans="1:47" ht="42" customHeight="1">
-      <c r="A60" s="98"/>
-      <c r="B60" s="98"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="97"/>
       <c r="C60" s="74" t="s">
         <v>191</v>
       </c>
@@ -60540,8 +60540,8 @@
       <c r="AU60" s="49"/>
     </row>
     <row r="61" spans="1:47" ht="42" customHeight="1">
-      <c r="A61" s="98"/>
-      <c r="B61" s="98"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="74" t="s">
         <v>192</v>
       </c>
@@ -60645,8 +60645,8 @@
       <c r="AU61" s="49"/>
     </row>
     <row r="62" spans="1:47" ht="42" customHeight="1">
-      <c r="A62" s="98"/>
-      <c r="B62" s="98"/>
+      <c r="A62" s="97"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="74" t="s">
         <v>193</v>
       </c>
@@ -60750,8 +60750,8 @@
       <c r="AU62" s="49"/>
     </row>
     <row r="63" spans="1:47" ht="42" customHeight="1">
-      <c r="A63" s="98"/>
-      <c r="B63" s="98"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="97"/>
       <c r="C63" s="74" t="s">
         <v>194</v>
       </c>
@@ -60855,8 +60855,8 @@
       <c r="AU63" s="49"/>
     </row>
     <row r="64" spans="1:47" ht="42" customHeight="1">
-      <c r="A64" s="98"/>
-      <c r="B64" s="98"/>
+      <c r="A64" s="97"/>
+      <c r="B64" s="97"/>
       <c r="C64" s="74" t="s">
         <v>195</v>
       </c>
@@ -60960,8 +60960,8 @@
       <c r="AU64" s="49"/>
     </row>
     <row r="65" spans="1:47" ht="42" customHeight="1">
-      <c r="A65" s="98"/>
-      <c r="B65" s="98"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="97"/>
       <c r="C65" s="74" t="s">
         <v>196</v>
       </c>
@@ -61065,8 +61065,8 @@
       <c r="AU65" s="49"/>
     </row>
     <row r="66" spans="1:47" ht="42" customHeight="1">
-      <c r="A66" s="98"/>
-      <c r="B66" s="98"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="74" t="s">
         <v>197</v>
       </c>
@@ -61170,8 +61170,8 @@
       <c r="AU66" s="49"/>
     </row>
     <row r="67" spans="1:47" ht="42" customHeight="1">
-      <c r="A67" s="98"/>
-      <c r="B67" s="98"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="74" t="s">
         <v>198</v>
       </c>
@@ -61275,8 +61275,8 @@
       <c r="AU67" s="49"/>
     </row>
     <row r="68" spans="1:47" ht="42" customHeight="1">
-      <c r="A68" s="98"/>
-      <c r="B68" s="98"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="74" t="s">
         <v>199</v>
       </c>
@@ -61380,8 +61380,8 @@
       <c r="AU68" s="49"/>
     </row>
     <row r="69" spans="1:47" ht="42" customHeight="1">
-      <c r="A69" s="98"/>
-      <c r="B69" s="99"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="50" t="s">
         <v>200</v>
       </c>
@@ -61485,8 +61485,8 @@
       <c r="AU69" s="49"/>
     </row>
     <row r="70" spans="1:47" ht="42" customHeight="1">
-      <c r="A70" s="98"/>
-      <c r="B70" s="108" t="s">
+      <c r="A70" s="97"/>
+      <c r="B70" s="106" t="s">
         <v>102</v>
       </c>
       <c r="C70" s="50" t="s">
@@ -61592,8 +61592,8 @@
       <c r="AU70" s="49"/>
     </row>
     <row r="71" spans="1:47" ht="42" customHeight="1">
-      <c r="A71" s="98"/>
-      <c r="B71" s="98"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="50" t="s">
         <v>203</v>
       </c>
@@ -61697,8 +61697,8 @@
       <c r="AU71" s="49"/>
     </row>
     <row r="72" spans="1:47" ht="42" customHeight="1">
-      <c r="A72" s="98"/>
-      <c r="B72" s="98"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="97"/>
       <c r="C72" s="50" t="s">
         <v>204</v>
       </c>
@@ -61802,8 +61802,8 @@
       <c r="AU72" s="49"/>
     </row>
     <row r="73" spans="1:47" ht="42" customHeight="1">
-      <c r="A73" s="98"/>
-      <c r="B73" s="98"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="50" t="s">
         <v>205</v>
       </c>
@@ -61907,8 +61907,8 @@
       <c r="AU73" s="49"/>
     </row>
     <row r="74" spans="1:47" ht="42" customHeight="1">
-      <c r="A74" s="98"/>
-      <c r="B74" s="98"/>
+      <c r="A74" s="97"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="50" t="s">
         <v>206</v>
       </c>
@@ -62012,8 +62012,8 @@
       <c r="AU74" s="49"/>
     </row>
     <row r="75" spans="1:47" ht="42" customHeight="1">
-      <c r="A75" s="98"/>
-      <c r="B75" s="98"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="50" t="s">
         <v>207</v>
       </c>
@@ -62117,8 +62117,8 @@
       <c r="AU75" s="49"/>
     </row>
     <row r="76" spans="1:47" ht="42" customHeight="1">
-      <c r="A76" s="98"/>
-      <c r="B76" s="98"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="97"/>
       <c r="C76" s="50" t="s">
         <v>208</v>
       </c>
@@ -62222,8 +62222,8 @@
       <c r="AU76" s="49"/>
     </row>
     <row r="77" spans="1:47" ht="42" customHeight="1">
-      <c r="A77" s="98"/>
-      <c r="B77" s="98"/>
+      <c r="A77" s="97"/>
+      <c r="B77" s="97"/>
       <c r="C77" s="50" t="s">
         <v>209</v>
       </c>
@@ -62327,8 +62327,8 @@
       <c r="AU77" s="49"/>
     </row>
     <row r="78" spans="1:47" ht="42" customHeight="1">
-      <c r="A78" s="98"/>
-      <c r="B78" s="98"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="97"/>
       <c r="C78" s="50" t="s">
         <v>210</v>
       </c>
@@ -62432,8 +62432,8 @@
       <c r="AU78" s="49"/>
     </row>
     <row r="79" spans="1:47" ht="42" customHeight="1">
-      <c r="A79" s="98"/>
-      <c r="B79" s="98"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="97"/>
       <c r="C79" s="50" t="s">
         <v>212</v>
       </c>
@@ -62537,8 +62537,8 @@
       <c r="AU79" s="49"/>
     </row>
     <row r="80" spans="1:47" ht="42" customHeight="1">
-      <c r="A80" s="98"/>
-      <c r="B80" s="98"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="50" t="s">
         <v>213</v>
       </c>
@@ -62642,8 +62642,8 @@
       <c r="AU80" s="49"/>
     </row>
     <row r="81" spans="1:47" ht="42" customHeight="1">
-      <c r="A81" s="98"/>
-      <c r="B81" s="99"/>
+      <c r="A81" s="97"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="50" t="s">
         <v>214</v>
       </c>
@@ -62747,8 +62747,8 @@
       <c r="AU81" s="49"/>
     </row>
     <row r="82" spans="1:47" ht="42" customHeight="1">
-      <c r="A82" s="98"/>
-      <c r="B82" s="108" t="s">
+      <c r="A82" s="97"/>
+      <c r="B82" s="106" t="s">
         <v>117</v>
       </c>
       <c r="C82" s="50" t="s">
@@ -62854,8 +62854,8 @@
       <c r="AU82" s="49"/>
     </row>
     <row r="83" spans="1:47" ht="42" customHeight="1">
-      <c r="A83" s="98"/>
-      <c r="B83" s="98"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="50" t="s">
         <v>216</v>
       </c>
@@ -62959,8 +62959,8 @@
       <c r="AU83" s="49"/>
     </row>
     <row r="84" spans="1:47" ht="42" customHeight="1">
-      <c r="A84" s="98"/>
-      <c r="B84" s="98"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="97"/>
       <c r="C84" s="50" t="s">
         <v>217</v>
       </c>
@@ -63064,8 +63064,8 @@
       <c r="AU84" s="49"/>
     </row>
     <row r="85" spans="1:47" ht="42" customHeight="1">
-      <c r="A85" s="98"/>
-      <c r="B85" s="98"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="50" t="s">
         <v>218</v>
       </c>
@@ -63169,8 +63169,8 @@
       <c r="AU85" s="49"/>
     </row>
     <row r="86" spans="1:47" ht="42" customHeight="1">
-      <c r="A86" s="98"/>
-      <c r="B86" s="98"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="50" t="s">
         <v>219</v>
       </c>
@@ -63274,8 +63274,8 @@
       <c r="AU86" s="49"/>
     </row>
     <row r="87" spans="1:47" ht="42" customHeight="1">
-      <c r="A87" s="98"/>
-      <c r="B87" s="98"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="50" t="s">
         <v>220</v>
       </c>
@@ -63379,8 +63379,8 @@
       <c r="AU87" s="49"/>
     </row>
     <row r="88" spans="1:47" ht="42" customHeight="1">
-      <c r="A88" s="98"/>
-      <c r="B88" s="98"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="97"/>
       <c r="C88" s="50" t="s">
         <v>221</v>
       </c>
@@ -63484,8 +63484,8 @@
       <c r="AU88" s="49"/>
     </row>
     <row r="89" spans="1:47" ht="42" customHeight="1">
-      <c r="A89" s="98"/>
-      <c r="B89" s="98"/>
+      <c r="A89" s="97"/>
+      <c r="B89" s="97"/>
       <c r="C89" s="50" t="s">
         <v>222</v>
       </c>
@@ -63589,8 +63589,8 @@
       <c r="AU89" s="49"/>
     </row>
     <row r="90" spans="1:47" ht="42" customHeight="1">
-      <c r="A90" s="98"/>
-      <c r="B90" s="98"/>
+      <c r="A90" s="97"/>
+      <c r="B90" s="97"/>
       <c r="C90" s="50" t="s">
         <v>223</v>
       </c>
@@ -63694,8 +63694,8 @@
       <c r="AU90" s="49"/>
     </row>
     <row r="91" spans="1:47" ht="42" customHeight="1">
-      <c r="A91" s="98"/>
-      <c r="B91" s="98"/>
+      <c r="A91" s="97"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="50"/>
       <c r="D91" s="6"/>
       <c r="E91" s="67"/>
@@ -63751,8 +63751,8 @@
       <c r="AU91" s="49"/>
     </row>
     <row r="92" spans="1:47" ht="42" customHeight="1">
-      <c r="A92" s="98"/>
-      <c r="B92" s="98"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="50" t="s">
         <v>224</v>
       </c>
@@ -63856,8 +63856,8 @@
       <c r="AU92" s="49"/>
     </row>
     <row r="93" spans="1:47" ht="42" customHeight="1">
-      <c r="A93" s="98"/>
-      <c r="B93" s="99"/>
+      <c r="A93" s="97"/>
+      <c r="B93" s="98"/>
       <c r="C93" s="50" t="s">
         <v>225</v>
       </c>
@@ -63961,8 +63961,8 @@
       <c r="AU93" s="49"/>
     </row>
     <row r="94" spans="1:47" ht="42" customHeight="1">
-      <c r="A94" s="98"/>
-      <c r="B94" s="108" t="s">
+      <c r="A94" s="97"/>
+      <c r="B94" s="106" t="s">
         <v>132</v>
       </c>
       <c r="C94" s="50" t="s">
@@ -64068,8 +64068,8 @@
       <c r="AU94" s="49"/>
     </row>
     <row r="95" spans="1:47" ht="42" customHeight="1">
-      <c r="A95" s="98"/>
-      <c r="B95" s="98"/>
+      <c r="A95" s="97"/>
+      <c r="B95" s="97"/>
       <c r="C95" s="50" t="s">
         <v>227</v>
       </c>
@@ -64173,8 +64173,8 @@
       <c r="AU95" s="49"/>
     </row>
     <row r="96" spans="1:47" ht="42" customHeight="1">
-      <c r="A96" s="98"/>
-      <c r="B96" s="98"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="97"/>
       <c r="C96" s="50" t="s">
         <v>228</v>
       </c>
@@ -64278,8 +64278,8 @@
       <c r="AU96" s="49"/>
     </row>
     <row r="97" spans="1:47" ht="42" customHeight="1">
-      <c r="A97" s="98"/>
-      <c r="B97" s="98"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="97"/>
       <c r="C97" s="50" t="s">
         <v>229</v>
       </c>
@@ -64383,8 +64383,8 @@
       <c r="AU97" s="49"/>
     </row>
     <row r="98" spans="1:47" ht="42" customHeight="1">
-      <c r="A98" s="98"/>
-      <c r="B98" s="98"/>
+      <c r="A98" s="97"/>
+      <c r="B98" s="97"/>
       <c r="C98" s="50" t="s">
         <v>230</v>
       </c>
@@ -64488,8 +64488,8 @@
       <c r="AU98" s="49"/>
     </row>
     <row r="99" spans="1:47" ht="42" customHeight="1">
-      <c r="A99" s="98"/>
-      <c r="B99" s="98"/>
+      <c r="A99" s="97"/>
+      <c r="B99" s="97"/>
       <c r="C99" s="50" t="s">
         <v>231</v>
       </c>
@@ -64593,8 +64593,8 @@
       <c r="AU99" s="49"/>
     </row>
     <row r="100" spans="1:47" ht="42" customHeight="1">
-      <c r="A100" s="98"/>
-      <c r="B100" s="98"/>
+      <c r="A100" s="97"/>
+      <c r="B100" s="97"/>
       <c r="C100" s="50" t="s">
         <v>232</v>
       </c>
@@ -64698,8 +64698,8 @@
       <c r="AU100" s="49"/>
     </row>
     <row r="101" spans="1:47" ht="42" customHeight="1">
-      <c r="A101" s="98"/>
-      <c r="B101" s="98"/>
+      <c r="A101" s="97"/>
+      <c r="B101" s="97"/>
       <c r="C101" s="50" t="s">
         <v>233</v>
       </c>
@@ -64803,8 +64803,8 @@
       <c r="AU101" s="49"/>
     </row>
     <row r="102" spans="1:47" ht="42" customHeight="1">
-      <c r="A102" s="98"/>
-      <c r="B102" s="98"/>
+      <c r="A102" s="97"/>
+      <c r="B102" s="97"/>
       <c r="C102" s="50" t="s">
         <v>234</v>
       </c>
@@ -64908,8 +64908,8 @@
       <c r="AU102" s="49"/>
     </row>
     <row r="103" spans="1:47" ht="42" customHeight="1">
-      <c r="A103" s="98"/>
-      <c r="B103" s="98"/>
+      <c r="A103" s="97"/>
+      <c r="B103" s="97"/>
       <c r="C103" s="50" t="s">
         <v>235</v>
       </c>
@@ -65013,8 +65013,8 @@
       <c r="AU103" s="49"/>
     </row>
     <row r="104" spans="1:47" ht="42" customHeight="1">
-      <c r="A104" s="98"/>
-      <c r="B104" s="99"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="98"/>
       <c r="C104" s="50" t="s">
         <v>236</v>
       </c>
@@ -65118,8 +65118,8 @@
       <c r="AU104" s="49"/>
     </row>
     <row r="105" spans="1:47" ht="42" customHeight="1">
-      <c r="A105" s="98"/>
-      <c r="B105" s="108" t="s">
+      <c r="A105" s="97"/>
+      <c r="B105" s="106" t="s">
         <v>237</v>
       </c>
       <c r="C105" s="50" t="s">
@@ -65225,8 +65225,8 @@
       <c r="AU105" s="49"/>
     </row>
     <row r="106" spans="1:47" ht="42" customHeight="1">
-      <c r="A106" s="98"/>
-      <c r="B106" s="99"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="98"/>
       <c r="C106" s="50" t="s">
         <v>239</v>
       </c>
@@ -65330,18 +65330,18 @@
       <c r="AU106" s="49"/>
     </row>
     <row r="107" spans="1:47" ht="42" customHeight="1">
-      <c r="A107" s="98"/>
-      <c r="B107" s="109" t="s">
+      <c r="A107" s="97"/>
+      <c r="B107" s="107" t="s">
         <v>20</v>
       </c>
       <c r="C107" s="102"/>
       <c r="D107" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="110">
+      <c r="E107" s="108">
         <v>133</v>
       </c>
-      <c r="F107" s="111"/>
+      <c r="F107" s="109"/>
       <c r="G107" s="65">
         <f t="shared" ref="G107:W107" si="1">SUM(G53:G106)</f>
         <v>127</v>
@@ -65456,16 +65456,16 @@
       <c r="AU107" s="49"/>
     </row>
     <row r="108" spans="1:47" ht="42" customHeight="1">
-      <c r="A108" s="99"/>
+      <c r="A108" s="98"/>
       <c r="B108" s="103"/>
       <c r="C108" s="104"/>
       <c r="D108" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="110">
+      <c r="E108" s="108">
         <v>140</v>
       </c>
-      <c r="F108" s="111"/>
+      <c r="F108" s="109"/>
       <c r="G108" s="65">
         <f t="shared" ref="G108:H108" si="2">SUM(G53:G106)</f>
         <v>127</v>
@@ -65581,6 +65581,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:B33"/>
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="B107:C108"/>
     <mergeCell ref="E107:F107"/>
@@ -65597,11 +65602,6 @@
     <mergeCell ref="B70:B81"/>
     <mergeCell ref="B82:B93"/>
     <mergeCell ref="B94:B104"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -65630,15 +65630,15 @@
       <c r="A1" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
       <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -65665,7 +65665,7 @@
       <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="99"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="81" t="s">
         <v>14</v>
       </c>
